--- a/Tests/test_recap_group_6.xlsx
+++ b/Tests/test_recap_group_6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>nom fichier</t>
   </si>
@@ -69,6 +69,57 @@
   </si>
   <si>
     <t xml:space="preserve">que se passe-t-il si plusieurs peronnes ont le même nom de famille ? Comment la page à renvoyer est-elle déterminée ? </t>
+  </si>
+  <si>
+    <t>wiki_search_v1_4</t>
+  </si>
+  <si>
+    <t>g6_polarity_feel_v1_2</t>
+  </si>
+  <si>
+    <t>load_dict</t>
+  </si>
+  <si>
+    <t>On ne fait pas de tests sur cette fonction</t>
+  </si>
+  <si>
+    <t>df_to_dict</t>
+  </si>
+  <si>
+    <t>Tokenize</t>
+  </si>
+  <si>
+    <t>On doit retourner une liste ayant  dans chacune des cases un seul mot /caractère (et sans espaces)  correspondant au texte sur lequel on applique cette fonction</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>del_stop_word_list</t>
+  </si>
+  <si>
+    <t>La fonction doit retourner une liste de mots  ne contenant plus aucun stopwords</t>
+  </si>
+  <si>
+    <t>List_to_text</t>
+  </si>
+  <si>
+    <t>La fonction doit transformer une liste de mots en un seul string</t>
+  </si>
+  <si>
+    <t>Text_to_list</t>
+  </si>
+  <si>
+    <t>La fonction doit transformer un string en une liste de mots sans garder les stopwords.</t>
+  </si>
+  <si>
+    <t>feel_polarity</t>
+  </si>
+  <si>
+    <t>feel_polarity_main</t>
+  </si>
+  <si>
+    <t>On vérifie que pour une liste donnée, le dictionnaire renvoyé contient bien la moyenne de chacune des composantes de notre vecteur somme ( vecteur qui contient polarité et les émotions générales d'une liste donnée)</t>
   </si>
 </sst>
 </file>
@@ -441,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,84 +609,181 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9">
+        <v>43118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="9"/>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="9"/>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="9">
+        <v>43118</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9">
+        <v>43118</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="9">
+        <v>43118</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="9">
+        <v>43118</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="9">
+        <v>43118</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="9">
+        <v>43118</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="9">
+        <v>43118</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="9">
+        <v>43118</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>

--- a/Tests/test_recap_group_6.xlsx
+++ b/Tests/test_recap_group_6.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +137,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,6 +222,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -492,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,7 +570,7 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -562,7 +583,7 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -575,7 +596,7 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -588,7 +609,7 @@
       <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -621,7 +642,7 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -632,7 +653,7 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -643,7 +664,7 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -673,7 +694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>20</v>
@@ -681,10 +702,10 @@
       <c r="C14" s="9">
         <v>43118</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -699,7 +720,7 @@
       <c r="D15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -714,7 +735,7 @@
       <c r="D16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -729,7 +750,7 @@
       <c r="D17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -745,7 +766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>30</v>
@@ -753,10 +774,10 @@
       <c r="C19" s="9">
         <v>43118</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -789,5 +810,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>